--- a/table/descriptive_statistics.xlsx
+++ b/table/descriptive_statistics.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DB2EC5-7851-BE43-B197-6AA3B54FC9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F2336-9D03-5D4A-AA3B-498D55E84DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{47C88F1D-959D-0245-BFF5-FEA8E00193AB}"/>
+    <workbookView xWindow="-29560" yWindow="2120" windowWidth="27640" windowHeight="16300" activeTab="2" xr2:uid="{47C88F1D-959D-0245-BFF5-FEA8E00193AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="full_sample_carrier (new)" sheetId="2" r:id="rId1"/>
+    <sheet name="full_sample_overall (old)" sheetId="1" r:id="rId2"/>
+    <sheet name="age_building_heating_system" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>Variable</t>
   </si>
@@ -212,13 +214,413 @@
   </si>
   <si>
     <t>[inhabitants/sq. km]</t>
+  </si>
+  <si>
+    <t>116 (89, 149)</t>
+  </si>
+  <si>
+    <t>117 (91, 148)</t>
+  </si>
+  <si>
+    <t>83 (63, 109)</t>
+  </si>
+  <si>
+    <t>6.18 (5.56, 6.79)</t>
+  </si>
+  <si>
+    <t>7.06 (6.08, 8.25)</t>
+  </si>
+  <si>
+    <t>10.12 (8.71, 11.84)</t>
+  </si>
+  <si>
+    <t>3,418 (3,192, 3,697)</t>
+  </si>
+  <si>
+    <t>3,536 (3,273, 3,826)</t>
+  </si>
+  <si>
+    <t>3,397 (3,191, 3,642)</t>
+  </si>
+  <si>
+    <t>424 (271, 701)</t>
+  </si>
+  <si>
+    <t>305 (226, 466)</t>
+  </si>
+  <si>
+    <t>1,118 (556, 2,118)</t>
+  </si>
+  <si>
+    <t>4 (3, 6)</t>
+  </si>
+  <si>
+    <t>16 (8, 32)</t>
+  </si>
+  <si>
+    <t>20,658 (18,731, 22,563)</t>
+  </si>
+  <si>
+    <t>21,098 (19,388, 22,861)</t>
+  </si>
+  <si>
+    <t>19,217 (17,667, 21,327)</t>
+  </si>
+  <si>
+    <t>0.209 (0.194, 0.222)</t>
+  </si>
+  <si>
+    <t>0.205 (0.193, 0.216)</t>
+  </si>
+  <si>
+    <t>0.210 (0.192, 0.230)</t>
+  </si>
+  <si>
+    <t>662 (255, 2,121)</t>
+  </si>
+  <si>
+    <t>320 (149, 839)</t>
+  </si>
+  <si>
+    <t>2,053 (505, 4,821)</t>
+  </si>
+  <si>
+    <t>Space heat demand, eff.</t>
+  </si>
+  <si>
+    <t>Variable [Median (IQR)]</t>
+  </si>
+  <si>
+    <t>Heating surface</t>
+  </si>
+  <si>
+    <t>Housing units</t>
+  </si>
+  <si>
+    <t>District household income, per capita</t>
+  </si>
+  <si>
+    <t>Postal code population density</t>
+  </si>
+  <si>
+    <t>Note: Median (IQR), No missings</t>
+  </si>
+  <si>
+    <t>Overall, N = 2,718,246</t>
+  </si>
+  <si>
+    <t>District heating, N = 268,232 (9.9%)</t>
+  </si>
+  <si>
+    <t>Gas, N = 1,647,563 (60.6%)</t>
+  </si>
+  <si>
+    <t>Oil, N = 802,451 (29.5%)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Until 1918</t>
+  </si>
+  <si>
+    <t>34,536 (9.5%)</t>
+  </si>
+  <si>
+    <t>22,004 (10.0%)</t>
+  </si>
+  <si>
+    <t>6,622 (6.1%)</t>
+  </si>
+  <si>
+    <t>5,910 (17%)</t>
+  </si>
+  <si>
+    <t>1919-1948</t>
+  </si>
+  <si>
+    <t>22,652 (6.2%)</t>
+  </si>
+  <si>
+    <t>14,494 (6.6%)</t>
+  </si>
+  <si>
+    <t>4,742 (4.3%)</t>
+  </si>
+  <si>
+    <t>3,416 (9.7%)</t>
+  </si>
+  <si>
+    <t>1949-1978</t>
+  </si>
+  <si>
+    <t>121,949 (33%)</t>
+  </si>
+  <si>
+    <t>68,253 (31%)</t>
+  </si>
+  <si>
+    <t>42,973 (39%)</t>
+  </si>
+  <si>
+    <t>10,723 (30%)</t>
+  </si>
+  <si>
+    <t>1979-1995</t>
+  </si>
+  <si>
+    <t>126,299 (35%)</t>
+  </si>
+  <si>
+    <t>76,869 (35%)</t>
+  </si>
+  <si>
+    <t>40,072 (37%)</t>
+  </si>
+  <si>
+    <t>9,358 (26%)</t>
+  </si>
+  <si>
+    <t>1996-2009</t>
+  </si>
+  <si>
+    <t>58,582 (16%)</t>
+  </si>
+  <si>
+    <t>38,409 (17%)</t>
+  </si>
+  <si>
+    <t>14,411 (13%)</t>
+  </si>
+  <si>
+    <t>5,762 (16%)</t>
+  </si>
+  <si>
+    <t>After 2010</t>
+  </si>
+  <si>
+    <t>1,172 (0.3%)</t>
+  </si>
+  <si>
+    <t>738 (0.3%)</t>
+  </si>
+  <si>
+    <t>288 (0.3%)</t>
+  </si>
+  <si>
+    <t>146 (0.4%)</t>
+  </si>
+  <si>
+    <t>(Missing)</t>
+  </si>
+  <si>
+    <t>2,353,056</t>
+  </si>
+  <si>
+    <t>1,426,796</t>
+  </si>
+  <si>
+    <t>Until 1978</t>
+  </si>
+  <si>
+    <t>11,486 (3.5%)</t>
+  </si>
+  <si>
+    <t>6,360 (3.2%)</t>
+  </si>
+  <si>
+    <t>4,296 (4.5%)</t>
+  </si>
+  <si>
+    <t>830 (2.6%)</t>
+  </si>
+  <si>
+    <t>118,401 (36%)</t>
+  </si>
+  <si>
+    <t>71,848 (36%)</t>
+  </si>
+  <si>
+    <t>36,359 (38%)</t>
+  </si>
+  <si>
+    <t>10,194 (32%)</t>
+  </si>
+  <si>
+    <t>151,172 (46%)</t>
+  </si>
+  <si>
+    <t>93,734 (47%)</t>
+  </si>
+  <si>
+    <t>41,161 (43%)</t>
+  </si>
+  <si>
+    <t>16,277 (51%)</t>
+  </si>
+  <si>
+    <t>46,556 (14%)</t>
+  </si>
+  <si>
+    <t>27,564 (14%)</t>
+  </si>
+  <si>
+    <t>14,532 (15%)</t>
+  </si>
+  <si>
+    <t>4,460 (14%)</t>
+  </si>
+  <si>
+    <t>2,390,631</t>
+  </si>
+  <si>
+    <t>1,448,057</t>
+  </si>
+  <si>
+    <t>Building construction year</t>
+  </si>
+  <si>
+    <r>
+      <t>Overall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, N = 2,718,246</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, N = 1,647,563</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, N = 802,451</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>District heating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, N = 268,232</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>n (%) </t>
+    </r>
+  </si>
+  <si>
+    <t>Heating system installation year</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Nicht vorhanden</t>
+  </si>
+  <si>
+    <t>Vorhanden</t>
+  </si>
+  <si>
+    <t>Anteil vorhanden</t>
+  </si>
+  <si>
+    <t>Anteil vorhanden:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +684,43 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,10 +759,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,8 +788,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,10 +1124,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E94DFF-4E87-0B40-BA78-F98A525041EF}">
+  <dimension ref="A2:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="F14"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="F37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150314A-A7B4-5B4E-B7D8-84BC08877AC4}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="E3:G17"/>
     </sheetView>
   </sheetViews>
@@ -1017,4 +1833,352 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BF4DBC-D9BF-884E-AC46-433514169E89}">
+  <dimension ref="B2:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>2718246</v>
+      </c>
+      <c r="J7">
+        <f>H7</f>
+        <v>2718246</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10">
+        <v>2353056</v>
+      </c>
+      <c r="J10">
+        <v>2390631</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="28">
+        <v>693.34299999999996</v>
+      </c>
+      <c r="F11" s="28">
+        <v>232.917</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="H12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="H13">
+        <f>H7-H10</f>
+        <v>365190</v>
+      </c>
+      <c r="J13">
+        <f>J7-J10</f>
+        <v>327615</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="24">
+        <f>H13/H10</f>
+        <v>0.15519817632899516</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24">
+        <f>J13/J10</f>
+        <v>0.13704122468084787</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="28">
+        <v>706.10299999999995</v>
+      </c>
+      <c r="F18" s="28">
+        <v>236.471</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>